--- a/data/trans_camb/P29A_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P29A_R-Estudios-trans_camb.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,98; -5,19</t>
+          <t>-13,81; -5,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-46,31; -29,81</t>
+          <t>-46,27; -29,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-22,4; -14,52</t>
+          <t>-22,32; -14,61</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-14,27; -5,34</t>
+          <t>-14,01; -5,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-47,98; -31,89</t>
+          <t>-48,1; -32,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-22,66; -14,85</t>
+          <t>-22,7; -15,0</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-31,54; -15,46</t>
+          <t>-31,03; -15,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-31,13; -15,16</t>
+          <t>-31,12; -16,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-28,3; -18,63</t>
+          <t>-27,57; -18,53</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-31,87; -15,62</t>
+          <t>-31,6; -15,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-31,98; -15,34</t>
+          <t>-32,08; -16,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-28,91; -19,0</t>
+          <t>-28,19; -18,88</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-19,75; -12,23</t>
+          <t>-20,01; -11,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-29,64; -19,8</t>
+          <t>-29,53; -19,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-23,26; -16,98</t>
+          <t>-23,36; -17,3</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-19,86; -12,34</t>
+          <t>-20,15; -12,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-29,96; -20,31</t>
+          <t>-29,85; -20,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-23,5; -17,2</t>
+          <t>-23,55; -17,48</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-24,44; -14,43</t>
+          <t>-24,84; -14,27</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-30,57; -19,29</t>
+          <t>-30,62; -19,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-24,87; -18,37</t>
+          <t>-25,55; -18,7</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-24,72; -14,6</t>
+          <t>-25,13; -14,51</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-31,44; -19,91</t>
+          <t>-31,44; -19,68</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-25,31; -18,7</t>
+          <t>-26,14; -19,09</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P29A_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P29A_R-Estudios-trans_camb.xlsx
@@ -522,17 +522,17 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,81; -5,41</t>
+          <t>-14,17; -5,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-46,27; -29,44</t>
+          <t>-46,53; -30,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-22,32; -14,61</t>
+          <t>-22,38; -14,56</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-14,01; -5,55</t>
+          <t>-14,49; -5,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-48,1; -32,25</t>
+          <t>-48,68; -33,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-22,7; -15,0</t>
+          <t>-22,78; -14,92</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-31,03; -15,11</t>
+          <t>-31,12; -15,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-31,12; -16,11</t>
+          <t>-31,33; -16,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-27,57; -18,53</t>
+          <t>-27,71; -18,36</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-31,6; -15,35</t>
+          <t>-31,6; -15,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-32,08; -16,51</t>
+          <t>-32,31; -17,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-28,19; -18,88</t>
+          <t>-28,26; -18,82</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-20,01; -11,95</t>
+          <t>-19,89; -11,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-29,53; -19,95</t>
+          <t>-29,9; -20,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-23,36; -17,3</t>
+          <t>-23,25; -17,18</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-20,15; -12,11</t>
+          <t>-20,01; -11,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-29,85; -20,42</t>
+          <t>-30,06; -20,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-23,55; -17,48</t>
+          <t>-23,48; -17,36</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-24,84; -14,27</t>
+          <t>-24,87; -14,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-30,62; -19,2</t>
+          <t>-30,51; -19,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-25,55; -18,7</t>
+          <t>-25,63; -18,67</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-25,13; -14,51</t>
+          <t>-25,14; -14,54</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-31,44; -19,68</t>
+          <t>-31,28; -19,67</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-26,14; -19,09</t>
+          <t>-26,1; -19,03</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P29A_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P29A_R-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,17; -5,55</t>
+          <t>-13,98; -5,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-46,53; -30,69</t>
+          <t>-46,31; -29,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-22,38; -14,56</t>
+          <t>-22,4; -14,52</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-14,49; -5,72</t>
+          <t>-14,27; -5,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-48,68; -33,09</t>
+          <t>-47,98; -31,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-22,78; -14,92</t>
+          <t>-22,66; -14,85</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-31,12; -15,23</t>
+          <t>-31,54; -15,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-31,33; -16,28</t>
+          <t>-31,13; -15,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-27,71; -18,36</t>
+          <t>-28,3; -18,63</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-31,6; -15,38</t>
+          <t>-31,87; -15,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-32,31; -17,04</t>
+          <t>-31,98; -15,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-28,26; -18,82</t>
+          <t>-28,91; -19,0</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-19,89; -11,83</t>
+          <t>-19,75; -12,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-29,9; -20,13</t>
+          <t>-29,64; -19,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-23,25; -17,18</t>
+          <t>-23,26; -16,98</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-20,01; -11,94</t>
+          <t>-19,86; -12,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-30,06; -20,55</t>
+          <t>-29,96; -20,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-23,48; -17,36</t>
+          <t>-23,5; -17,2</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-24,87; -14,35</t>
+          <t>-24,44; -14,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-30,51; -19,05</t>
+          <t>-30,57; -19,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-25,63; -18,67</t>
+          <t>-24,87; -18,37</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-25,14; -14,54</t>
+          <t>-24,72; -14,6</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-31,28; -19,67</t>
+          <t>-31,44; -19,91</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-26,1; -19,03</t>
+          <t>-25,31; -18,7</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P29A_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P29A_R-Estudios-trans_camb.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-9,14</t>
+          <t>-9,83</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-38,43</t>
+          <t>-38,04</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-18,35</t>
+          <t>-18,26</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,98; -5,19</t>
+          <t>-15,95; -5,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-46,31; -29,81</t>
+          <t>-45,79; -29,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-22,4; -14,52</t>
+          <t>-22,67; -14,32</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-9,3%</t>
+          <t>-10,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-40,13%</t>
+          <t>-39,72%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-18,81%</t>
+          <t>-18,71%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-14,27; -5,34</t>
+          <t>-16,16; -5,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-47,98; -31,89</t>
+          <t>-47,93; -31,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-22,66; -14,85</t>
+          <t>-23,09; -14,7</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-19,65</t>
+          <t>-29,88</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-25,52</t>
+          <t>-26,47</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-22,21</t>
+          <t>-28,55</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-31,54; -15,46</t>
+          <t>-58,76; -14,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-31,13; -15,16</t>
+          <t>-39,49; -12,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-28,3; -18,63</t>
+          <t>-50,95; -18,74</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-19,9%</t>
+          <t>-30,26%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-26,35%</t>
+          <t>-27,33%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-22,65%</t>
+          <t>-29,12%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-31,87; -15,62</t>
+          <t>-59,5; -15,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-31,98; -15,34</t>
+          <t>-40,81; -13,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-28,91; -19,0</t>
+          <t>-52,07; -19,09</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-15,77</t>
+          <t>-15,21</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-24,89</t>
+          <t>-24,19</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-19,95</t>
+          <t>-19,23</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-19,75; -12,23</t>
+          <t>-19,03; -11,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-29,64; -19,8</t>
+          <t>-28,8; -19,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-23,26; -16,98</t>
+          <t>-22,31; -16,26</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-15,9%</t>
+          <t>-15,33%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-25,22%</t>
+          <t>-24,52%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-20,17%</t>
+          <t>-19,43%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-19,86; -12,34</t>
+          <t>-19,3; -11,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-29,96; -20,31</t>
+          <t>-29,29; -19,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-23,5; -17,2</t>
+          <t>-22,6; -16,47</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-17,28</t>
+          <t>-24,4</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-26,51</t>
+          <t>-26,86</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-21,19</t>
+          <t>-25,47</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-24,44; -14,43</t>
+          <t>-46,74; -14,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-30,57; -19,29</t>
+          <t>-36,95; -16,22</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-24,87; -18,37</t>
+          <t>-39,52; -18,26</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-17,5%</t>
+          <t>-24,71%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-27,28%</t>
+          <t>-27,65%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-21,58%</t>
+          <t>-25,94%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-24,72; -14,6</t>
+          <t>-47,23; -14,4</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-31,44; -19,91</t>
+          <t>-37,86; -16,67</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-25,31; -18,7</t>
+          <t>-40,31; -18,6</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P29A_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P29A_R-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,34 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,6 +520,12 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -506,33 +540,69 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2023/2016</t>
+          <t>2012/2007</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2023/2016</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2016</t>
+          <t>2023/2007</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012/2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023/2007</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012/2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023/2007</t>
         </is>
       </c>
     </row>
@@ -542,6 +612,12 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -556,17 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-9,83</t>
+          <t>5,58</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-38,04</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-18,26</t>
+          <t>4,13</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3,14</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1,46</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-2,32</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3,39</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1,31</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-0,73</t>
         </is>
       </c>
     </row>
@@ -579,17 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,95; -5,76</t>
+          <t>0,37; 9,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-45,79; -29,41</t>
+          <t>-3,15; 6,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-22,67; -14,32</t>
+          <t>-0,94; 9,31</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0,34; 5,87</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-1,41; 4,17</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-4,67; 0,38</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0,65; 6,04</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-1,42; 4,09</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-3,78; 2,01</t>
         </is>
       </c>
     </row>
@@ -602,17 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-10,0%</t>
+          <t>12,83%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-39,72%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-18,71%</t>
+          <t>9,52%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>27,87%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>12,95%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-20,57%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>13,37%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>5,15%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-2,9%</t>
         </is>
       </c>
     </row>
@@ -625,17 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-16,16; -5,88</t>
+          <t>0,72; 24,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-47,93; -31,41</t>
+          <t>-7,03; 16,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-23,09; -14,7</t>
+          <t>-2,31; 22,39</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>2,7; 57,57</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-11,15; 41,78</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-37,73; 3,59</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2,39; 25,52</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-5,38; 17,03</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-14,14; 8,42</t>
         </is>
       </c>
     </row>
@@ -652,17 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-29,88</t>
+          <t>-2,88</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-26,47</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-28,55</t>
+          <t>-17,06</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>-2,15</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3,35</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0,4</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-2,36</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,63</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-8,69</t>
         </is>
       </c>
     </row>
@@ -675,17 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-58,76; -14,98</t>
+          <t>-6,32; 0,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-39,49; -12,94</t>
+          <t>-4,96; 2,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-50,95; -18,74</t>
+          <t>-30,11; -10,75</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>-5,38; 1,24</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0,23; 6,6</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-7,76; 18,71</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-4,79; 0,03</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-1,61; 3,12</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-14,46; -0,32</t>
         </is>
       </c>
     </row>
@@ -698,17 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-30,26%</t>
+          <t>-4,79%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-27,33%</t>
+          <t>-2,57%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-29,12%</t>
+          <t>-28,34%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>-6,86%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>10,68%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1,28%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-5,1%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1,36%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-18,8%</t>
         </is>
       </c>
     </row>
@@ -721,17 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-59,5; -15,1</t>
+          <t>-10,25; 0,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-40,81; -13,22</t>
+          <t>-7,94; 3,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-52,07; -19,09</t>
+          <t>-49,43; -17,96</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>-16,32; 4,17</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0,81; 22,65</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>-24,04; 63,33</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-10,04; 0,17</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-3,43; 6,94</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-31,07; -0,8</t>
         </is>
       </c>
     </row>
@@ -748,17 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-15,21</t>
+          <t>4,75</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-24,19</t>
+          <t>7,14</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-19,23</t>
+          <t>-7,24</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7,12</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>11,32</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-0,96</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5,44</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8,47</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-4,9</t>
         </is>
       </c>
     </row>
@@ -771,17 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-19,03; -11,71</t>
+          <t>-1,47; 11,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-28,8; -19,37</t>
+          <t>1,39; 13,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-22,31; -16,26</t>
+          <t>-13,4; -1,37</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0,74; 14,46</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>5,06; 17,42</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-6,5; 4,62</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0,57; 10,17</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4,16; 13,04</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-9,06; -0,58</t>
         </is>
       </c>
     </row>
@@ -794,17 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-15,33%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-24,52%</t>
+          <t>11,81%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-19,43%</t>
+          <t>-11,97%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>18,56%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>29,51%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>-2,5%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>10,85%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>16,89%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-9,77%</t>
         </is>
       </c>
     </row>
@@ -817,17 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-19,3; -11,85</t>
+          <t>-2,41; 19,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-29,29; -19,77</t>
+          <t>2,19; 23,99</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-22,6; -16,47</t>
+          <t>-20,9; -1,89</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1,18; 40,19</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>11,82; 50,06</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-15,37; 13,25</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1,27; 21,22</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>7,84; 27,33</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-17,19; -1,12</t>
         </is>
       </c>
     </row>
@@ -844,17 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-24,4</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-26,86</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-25,47</t>
+          <t>-9,26</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1,18</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>6,27</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>3,57</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0,97</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>4,12</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-2,8</t>
         </is>
       </c>
     </row>
@@ -867,17 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-46,74; -14,2</t>
+          <t>-1,54; 3,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-36,95; -16,22</t>
+          <t>-0,3; 4,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-39,52; -18,26</t>
+          <t>-19,44; -4,96</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-0,89; 3,39</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>4,24; 8,54</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-1,47; 16,17</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-0,81; 2,78</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2,41; 5,8</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-6,79; 3,02</t>
         </is>
       </c>
     </row>
@@ -890,17 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-24,71%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-27,65%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-25,94%</t>
+          <t>-16,85%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>4,82%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>25,56%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>14,56%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2,45%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>10,44%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>-7,09%</t>
         </is>
       </c>
     </row>
@@ -913,17 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-47,23; -14,4</t>
+          <t>-2,75; 6,29</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-37,86; -16,67</t>
+          <t>-0,51; 8,1</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-40,31; -18,6</t>
+          <t>-34,27; -9,1</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-3,57; 14,43</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>16,5; 36,3</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>-5,95; 63,94</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-1,98; 7,29</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>5,96; 14,92</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-16,94; 7,64</t>
         </is>
       </c>
     </row>
@@ -935,10 +1491,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
